--- a/docs/esp32-home_controller.xlsx
+++ b/docs/esp32-home_controller.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="WROVER" sheetId="5" r:id="rId1"/>
-    <sheet name="GPIO" sheetId="6" r:id="rId2"/>
-    <sheet name="MOSFET" sheetId="7" r:id="rId3"/>
-    <sheet name="Реле" sheetId="8" r:id="rId4"/>
+    <sheet name="MOSFET" sheetId="7" r:id="rId2"/>
+    <sheet name="Реле" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="153">
   <si>
     <t>Назначение в проекте</t>
   </si>
@@ -241,102 +240,9 @@
     <t>Приемник 433 МГц</t>
   </si>
   <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>Назначение</t>
-  </si>
-  <si>
-    <t>Хост</t>
-  </si>
-  <si>
-    <t>Напр</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>MCP#1</t>
-  </si>
-  <si>
-    <t>OUT</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>GPIO</t>
-  </si>
-  <si>
-    <t>RELAY</t>
-  </si>
-  <si>
-    <t>Управление котлом через "сухой контакт"</t>
-  </si>
-  <si>
-    <t>MCP#2</t>
-  </si>
-  <si>
-    <t>MCP#3</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>RF433</t>
-  </si>
-  <si>
-    <t>RS485</t>
-  </si>
-  <si>
     <t>Напряжение на аккумуляторе</t>
   </si>
   <si>
-    <t>OT</t>
-  </si>
-  <si>
     <t>Шина I2C #0 SDA</t>
   </si>
   <si>
@@ -349,45 +255,6 @@
     <t>Шина I2C #1 SCL</t>
   </si>
   <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t>SCL</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>1WIRE</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>OPTRON</t>
-  </si>
-  <si>
-    <t>Внутренний зуммер (пассивный 5в)</t>
-  </si>
-  <si>
-    <t>Шина 1Wire (резерв под считыватель ТМ)</t>
-  </si>
-  <si>
-    <t>I2C #1</t>
-  </si>
-  <si>
-    <t>I2C #0</t>
-  </si>
-  <si>
-    <t>ISR #1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISR #2 </t>
-  </si>
-  <si>
     <t>Прерывание MCP23017 #1</t>
   </si>
   <si>
@@ -409,33 +276,6 @@
     <t>Внутренний зуммер</t>
   </si>
   <si>
-    <t>Датчик утечки газа</t>
-  </si>
-  <si>
-    <t>Шина I2C #0 SDA (IO EXP)</t>
-  </si>
-  <si>
-    <t>Шина I2C #0 SCL (IO EXP)</t>
-  </si>
-  <si>
-    <t>Шина I2C #1 SDA (SENSORS)</t>
-  </si>
-  <si>
-    <t>Шина I2C #1 SCL (SENSORS)</t>
-  </si>
-  <si>
-    <t>WZONE</t>
-  </si>
-  <si>
-    <t>RXD</t>
-  </si>
-  <si>
-    <t>TXD</t>
-  </si>
-  <si>
-    <t>RTS</t>
-  </si>
-  <si>
     <t>Шина RS485 RTS (UART 1)</t>
   </si>
   <si>
@@ -500,165 +340,6 @@
   </si>
   <si>
     <t>Принудительный сброс MCP23017</t>
-  </si>
-  <si>
-    <t>Наличие сетевого питания 220В</t>
-  </si>
-  <si>
-    <t>Дверной звоное (кнопка)</t>
-  </si>
-  <si>
-    <t>O/DRAIN</t>
-  </si>
-  <si>
-    <t>D/OUT</t>
-  </si>
-  <si>
-    <t>D/IN</t>
-  </si>
-  <si>
-    <t>B0</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>Системный светодиод (низкий уровень)</t>
-  </si>
-  <si>
-    <t>Резерв светодиод (низкий уровень)</t>
-  </si>
-  <si>
-    <t>Предупреждение (желтый) (низкий уровень)</t>
-  </si>
-  <si>
-    <t>Сигнализация (красный) (низкий уровень)</t>
-  </si>
-  <si>
-    <t>OUT L</t>
-  </si>
-  <si>
-    <t>Реле активации КТЦ аккумулятора</t>
-  </si>
-  <si>
-    <t>Сирена 12В</t>
-  </si>
-  <si>
-    <t>Световой извещатель 12В</t>
-  </si>
-  <si>
-    <t>Внешнее реле 1 (свет крыльцо)</t>
-  </si>
-  <si>
-    <t>Внешнее реле 2 (свет огород)</t>
-  </si>
-  <si>
-    <t>Внешнее реле 3 (свет прихожая)</t>
-  </si>
-  <si>
-    <t>OUT U</t>
-  </si>
-  <si>
-    <t>Реле сброса пожарных датчиков</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B0</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B1</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B2</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B3</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B4</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B5</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B6</t>
-  </si>
-  <si>
-    <t>Проводная зона 1B7</t>
-  </si>
-  <si>
-    <t>Проводная зона 2A1</t>
-  </si>
-  <si>
-    <t>Проводная зона 2A0</t>
-  </si>
-  <si>
-    <t>Проводная зона 2B6</t>
-  </si>
-  <si>
-    <t>Проводная зона 2B7</t>
-  </si>
-  <si>
-    <t>Датчик дыма S2</t>
-  </si>
-  <si>
-    <t>Датчик дыма S3</t>
-  </si>
-  <si>
-    <t>Датчик дыма S4</t>
-  </si>
-  <si>
-    <t>Датчик дыма S5</t>
-  </si>
-  <si>
-    <t>2WIRE</t>
-  </si>
-  <si>
-    <t>Оптронный вход A6</t>
-  </si>
-  <si>
-    <t>Оптронный вход A7</t>
-  </si>
-  <si>
-    <t>Оптронный вход B0</t>
-  </si>
-  <si>
-    <t>Оптронный вход B1</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A0 (PIR крыльцо)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A1 (PIR прихожая)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A2 (PIR кухня)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A3 (PIR комната)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A4 (PIR спальня)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A5 (PIR комната Лены)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A6 (PIR общая)</t>
-  </si>
-  <si>
-    <t>Проводная зона 1A7 (дверь входная)</t>
-  </si>
-  <si>
-    <t>Датчик дыма F2 (кухня)</t>
-  </si>
-  <si>
-    <t>Датчик дыма F3 (прихожая)</t>
-  </si>
-  <si>
-    <t>Датчик дыма F4 (чердак 1)</t>
-  </si>
-  <si>
-    <t>Датчик дыма F5 (чердак 2)</t>
   </si>
   <si>
     <t>Наименование</t>
@@ -795,21 +476,6 @@
   </si>
   <si>
     <t>HK4100F-DC12V-SHG</t>
-  </si>
-  <si>
-    <t>Внешнее реле 4 (вентиляция подпол)</t>
-  </si>
-  <si>
-    <t>Дверной звонок 12В (реле на плате)</t>
-  </si>
-  <si>
-    <t>Внешнее реле 5 (клапан сброса воды)</t>
-  </si>
-  <si>
-    <t>Внешнее реле 6 (насос)</t>
-  </si>
-  <si>
-    <t>Внешнее реле 7 (гирлянды на доме)</t>
   </si>
 </sst>
 </file>
@@ -819,7 +485,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,23 +596,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,18 +768,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1140,7 +779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1473,82 +1112,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,100 +1341,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1875,20 +1353,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1958,21 +1427,21 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,7 +1449,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1995,75 +1533,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2335,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -2359,107 +1828,107 @@
   <sheetData>
     <row r="1" spans="1:22" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="165" t="s">
+      <c r="E2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="174" t="s">
+      <c r="I2" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="176" t="s">
+      <c r="J2" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="180" t="s">
+      <c r="K2" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="182" t="s">
+      <c r="M2" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="159" t="s">
+      <c r="N2" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="161" t="s">
+      <c r="O2" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="163" t="s">
+      <c r="P2" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="165" t="s">
+      <c r="Q2" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="167" t="s">
+      <c r="R2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="169" t="s">
+      <c r="S2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="184" t="s">
+      <c r="T2" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="171"/>
+      <c r="V2" s="125"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B3" s="173"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="185"/>
-      <c r="V3" s="171"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="147"/>
+      <c r="V3" s="125"/>
     </row>
     <row r="4" spans="1:22" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
@@ -2545,14 +2014,14 @@
       <c r="S6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="85" t="s">
+      <c r="T6" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="110"/>
-      <c r="B7" s="85" t="s">
-        <v>155</v>
+      <c r="A7" s="80"/>
+      <c r="B7" s="76" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="22" t="s">
@@ -2601,14 +2070,14 @@
       <c r="S7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="85" t="s">
-        <v>107</v>
+      <c r="T7" s="76" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="110"/>
-      <c r="B8" s="85" t="s">
-        <v>104</v>
+      <c r="A8" s="80"/>
+      <c r="B8" s="76" t="s">
+        <v>74</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="22" t="s">
@@ -2662,8 +2131,8 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="85" t="s">
-        <v>156</v>
+      <c r="B9" s="76" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="22" t="s">
@@ -2717,9 +2186,9 @@
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="110"/>
-      <c r="B10" s="85" t="s">
-        <v>157</v>
+      <c r="A10" s="80"/>
+      <c r="B10" s="76" t="s">
+        <v>104</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="22" t="s">
@@ -2768,14 +2237,14 @@
       <c r="S10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="85" t="s">
-        <v>106</v>
+      <c r="T10" s="76" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="110"/>
-      <c r="B11" s="85" t="s">
-        <v>141</v>
+      <c r="A11" s="80"/>
+      <c r="B11" s="76" t="s">
+        <v>88</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="22" t="s">
@@ -2817,9 +2286,9 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="110"/>
-      <c r="B12" s="85" t="s">
-        <v>139</v>
+      <c r="A12" s="80"/>
+      <c r="B12" s="76" t="s">
+        <v>86</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="22" t="s">
@@ -2868,15 +2337,15 @@
       <c r="S12" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="T12" s="111" t="s">
-        <v>124</v>
-      </c>
-      <c r="U12" s="110"/>
+      <c r="T12" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="80"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="110"/>
-      <c r="B13" s="85" t="s">
-        <v>140</v>
+      <c r="A13" s="80"/>
+      <c r="B13" s="76" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="24"/>
       <c r="D13" s="22" t="s">
@@ -2925,15 +2394,15 @@
       <c r="S13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="T13" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="U13" s="110"/>
+      <c r="T13" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="U13" s="80"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="110"/>
-      <c r="B14" s="85" t="s">
-        <v>127</v>
+      <c r="A14" s="80"/>
+      <c r="B14" s="76" t="s">
+        <v>83</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="22" t="s">
@@ -2982,14 +2451,14 @@
       <c r="S14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="85" t="s">
-        <v>125</v>
+      <c r="T14" s="76" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="110"/>
-      <c r="B15" s="85" t="s">
-        <v>128</v>
+      <c r="A15" s="80"/>
+      <c r="B15" s="76" t="s">
+        <v>84</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="22" t="s">
@@ -3043,9 +2512,9 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="110"/>
-      <c r="B16" s="85" t="s">
-        <v>126</v>
+      <c r="A16" s="80"/>
+      <c r="B16" s="76" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>49</v>
@@ -3101,9 +2570,9 @@
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="110"/>
-      <c r="B17" s="85" t="s">
-        <v>129</v>
+      <c r="A17" s="80"/>
+      <c r="B17" s="76" t="s">
+        <v>85</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>53</v>
@@ -3152,8 +2621,8 @@
         <v>18</v>
       </c>
       <c r="S17" s="23"/>
-      <c r="T17" s="85" t="s">
-        <v>160</v>
+      <c r="T17" s="76" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3195,14 +2664,14 @@
         <v>44</v>
       </c>
       <c r="S18" s="23"/>
-      <c r="T18" s="85" t="s">
-        <v>109</v>
+      <c r="T18" s="76" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="110"/>
-      <c r="B19" s="85" t="s">
-        <v>158</v>
+      <c r="A19" s="80"/>
+      <c r="B19" s="76" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>58</v>
@@ -3251,8 +2720,8 @@
         <v>44</v>
       </c>
       <c r="S19" s="23"/>
-      <c r="T19" s="85" t="s">
-        <v>159</v>
+      <c r="T19" s="76" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -3306,8 +2775,8 @@
       <c r="S20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="T20" s="85" t="s">
-        <v>108</v>
+      <c r="T20" s="76" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -3460,19 +2929,28 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="107"/>
+      <c r="B25" s="77"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="107"/>
+      <c r="B27" s="77"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="B28" s="107"/>
+      <c r="B28" s="77"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="B29" s="107"/>
+      <c r="B29" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -3485,15 +2963,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="T2:T3"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId1"/>
@@ -3503,1237 +2972,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="4" width="9.140625" style="77"/>
-    <col min="5" max="5" width="45.85546875" style="75" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="75"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="76" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A1" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="82">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="82">
-        <v>2</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="82">
-        <v>4</v>
-      </c>
-      <c r="C4" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="82">
-        <v>5</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="82">
-        <v>12</v>
-      </c>
-      <c r="C6" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="82">
-        <v>13</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="82">
-        <v>14</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="82">
-        <v>15</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="82">
-        <v>18</v>
-      </c>
-      <c r="C10" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="82">
-        <v>19</v>
-      </c>
-      <c r="C11" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="83" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="82">
-        <v>21</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="82">
-        <v>22</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="82">
-        <v>23</v>
-      </c>
-      <c r="C14" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="82">
-        <v>25</v>
-      </c>
-      <c r="C15" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="83" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="82">
-        <v>26</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="83" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="82">
-        <v>27</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="82">
-        <v>32</v>
-      </c>
-      <c r="C18" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="86">
-        <v>33</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="86">
-        <v>34</v>
-      </c>
-      <c r="C20" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="86">
-        <v>35</v>
-      </c>
-      <c r="C21" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="86">
-        <v>36</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A23" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="89">
-        <v>39</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="101" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="104" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="104" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="104" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="103" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>179</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="103" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="103" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="112" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="103" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A39" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="104" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B44" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D44" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B46" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="96" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B47" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="96" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="C48" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="113" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="113" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="113" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="113" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" s="113" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="113" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A55" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="93" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" s="96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" s="96" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="96" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B61" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D61" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="96" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="113" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="113" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D66" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="113" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="95" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="113" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="113" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="95" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E70" s="113" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A71" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4742,95 +2980,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="108" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="108"/>
-    <col min="5" max="5" width="16.7109375" style="109" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="108"/>
+    <col min="1" max="1" width="18.28515625" style="78" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="78"/>
+    <col min="5" max="5" width="16.7109375" style="79" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="76" customFormat="1" ht="25.5">
-      <c r="A1" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>147</v>
+    <row r="1" spans="1:5" s="75" customFormat="1" ht="25.5">
+      <c r="A1" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="108">
+      <c r="A2" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="78">
         <v>5.3</v>
       </c>
-      <c r="C2" s="108">
+      <c r="C2" s="78">
         <v>30</v>
       </c>
-      <c r="D2" s="108">
+      <c r="D2" s="78">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E2" s="109" t="s">
-        <v>149</v>
+      <c r="E2" s="79" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="108">
+      <c r="A3" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="78">
         <v>5.7</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="78">
         <v>30</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="78">
         <v>1.5</v>
       </c>
-      <c r="E3" s="109" t="s">
-        <v>151</v>
+      <c r="E3" s="79" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="108">
+      <c r="A4" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="78">
         <v>25</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="78">
         <v>60</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="78">
         <v>2</v>
       </c>
-      <c r="E4" s="109" t="s">
-        <v>153</v>
+      <c r="E4" s="79" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="108">
+      <c r="A5" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="78">
         <v>90</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="78">
         <v>30</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="78">
         <v>2.5</v>
       </c>
-      <c r="E5" s="109" t="s">
-        <v>153</v>
+      <c r="E5" s="79" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P21"/>
   <sheetViews>
@@ -4850,97 +3088,97 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="131"/>
-    <col min="5" max="5" width="9.140625" style="133"/>
-    <col min="6" max="8" width="9.140625" style="120"/>
-    <col min="9" max="11" width="9.140625" style="131"/>
-    <col min="12" max="12" width="9.140625" style="124"/>
-    <col min="13" max="13" width="9.140625" style="115"/>
-    <col min="14" max="15" width="9.140625" style="127"/>
-    <col min="16" max="16" width="9.140625" style="134"/>
+    <col min="4" max="4" width="9.140625" style="98"/>
+    <col min="5" max="5" width="9.140625" style="100"/>
+    <col min="6" max="8" width="9.140625" style="87"/>
+    <col min="9" max="11" width="9.140625" style="98"/>
+    <col min="12" max="12" width="9.140625" style="91"/>
+    <col min="13" max="13" width="9.140625" style="82"/>
+    <col min="14" max="15" width="9.140625" style="94"/>
+    <col min="16" max="16" width="9.140625" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="25.5">
-      <c r="A1" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="117" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="117" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="130" t="s">
-        <v>235</v>
-      </c>
-      <c r="E1" s="132" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="117" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="J1" s="130" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="130" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" s="126" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" s="126" t="s">
-        <v>231</v>
-      </c>
-      <c r="P1" s="135" t="s">
-        <v>250</v>
+    <row r="1" spans="1:16" s="83" customFormat="1" ht="25.5">
+      <c r="A1" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="97" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="P1" s="102" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="118" t="s">
-        <v>221</v>
+      <c r="A2" s="85" t="s">
+        <v>115</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="L2" s="124">
+      <c r="L2" s="91">
         <v>10</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="118" t="s">
-        <v>222</v>
+      <c r="A3" s="85" t="s">
+        <v>116</v>
       </c>
       <c r="B3">
         <v>12</v>
       </c>
-      <c r="L3" s="124">
+      <c r="L3" s="91">
         <v>0</v>
       </c>
-      <c r="M3" s="128" t="s">
+      <c r="M3" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="118" t="s">
-        <v>233</v>
+      <c r="A4" s="85" t="s">
+        <v>127</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4948,36 +3186,36 @@
       <c r="C4">
         <v>167</v>
       </c>
-      <c r="D4" s="131">
+      <c r="D4" s="98">
         <v>30</v>
       </c>
-      <c r="E4" s="133">
+      <c r="E4" s="100">
         <f t="shared" ref="E4:E19" si="0">B4*D4</f>
         <v>150</v>
       </c>
-      <c r="F4" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I4" s="131">
+      <c r="F4" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="98">
         <v>12.5</v>
       </c>
-      <c r="J4" s="131">
+      <c r="J4" s="98">
         <v>7.5</v>
       </c>
-      <c r="K4" s="131">
+      <c r="K4" s="98">
         <v>10</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="118" t="s">
-        <v>232</v>
+      <c r="A5" s="85" t="s">
+        <v>126</v>
       </c>
       <c r="B5">
         <v>12</v>
@@ -4985,49 +3223,49 @@
       <c r="C5">
         <v>960</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="98">
         <f t="shared" ref="D5:D19" si="1">1000*B5/C5</f>
         <v>12.5</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="100">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F5" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" s="131">
+      <c r="F5" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="98">
         <v>12.5</v>
       </c>
-      <c r="J5" s="131">
+      <c r="J5" s="98">
         <v>7.5</v>
       </c>
-      <c r="K5" s="131">
+      <c r="K5" s="98">
         <v>10</v>
       </c>
-      <c r="L5" s="124">
+      <c r="L5" s="91">
         <v>3</v>
       </c>
-      <c r="M5" s="122">
+      <c r="M5" s="89">
         <v>45516</v>
       </c>
-      <c r="N5" s="127">
+      <c r="N5" s="94">
         <v>450</v>
       </c>
-      <c r="O5" s="127">
+      <c r="O5" s="94">
         <f>N5/L5</f>
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="118" t="s">
-        <v>223</v>
+      <c r="A6" s="85" t="s">
+        <v>117</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5035,42 +3273,42 @@
       <c r="C6">
         <v>125</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="98">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E6" s="133">
+      <c r="E6" s="100">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F6" s="129" t="s">
-        <v>243</v>
-      </c>
-      <c r="G6" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="H6" s="129" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="131">
+      <c r="F6" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="98">
         <v>20.5</v>
       </c>
-      <c r="J6" s="131">
+      <c r="J6" s="98">
         <v>7.2</v>
       </c>
-      <c r="K6" s="131">
+      <c r="K6" s="98">
         <v>15.3</v>
       </c>
-      <c r="L6" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="M6" s="122">
+      <c r="L6" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="89">
         <v>45514</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="118" t="s">
-        <v>224</v>
+      <c r="A7" s="85" t="s">
+        <v>118</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -5078,42 +3316,42 @@
       <c r="C7">
         <v>720</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="98">
         <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="E7" s="133">
+      <c r="E7" s="100">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F7" s="129" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="H7" s="129" t="s">
-        <v>245</v>
-      </c>
-      <c r="I7" s="131">
+      <c r="F7" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="98">
         <v>20.5</v>
       </c>
-      <c r="J7" s="131">
+      <c r="J7" s="98">
         <v>7.2</v>
       </c>
-      <c r="K7" s="131">
+      <c r="K7" s="98">
         <v>15.3</v>
       </c>
-      <c r="L7" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="122">
+      <c r="L7" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="89">
         <v>45514</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="119" t="s">
-        <v>246</v>
+      <c r="A8" s="86" t="s">
+        <v>140</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -5121,38 +3359,38 @@
       <c r="C8">
         <v>125</v>
       </c>
-      <c r="D8" s="131">
+      <c r="D8" s="98">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E8" s="133">
+      <c r="E8" s="100">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F8" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H8" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I8" s="131">
+      <c r="F8" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I8" s="98">
         <v>12.4</v>
       </c>
-      <c r="J8" s="131">
+      <c r="J8" s="98">
         <v>7.4</v>
       </c>
-      <c r="K8" s="131">
+      <c r="K8" s="98">
         <v>10</v>
       </c>
-      <c r="L8" s="125"/>
-      <c r="M8" s="122"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="89"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="119" t="s">
-        <v>225</v>
+      <c r="A9" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -5160,49 +3398,49 @@
       <c r="C9">
         <v>720</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="98">
         <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="100">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="F9" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G9" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="131">
+      <c r="F9" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="98">
         <v>12.4</v>
       </c>
-      <c r="J9" s="131">
+      <c r="J9" s="98">
         <v>7.4</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="98">
         <v>10</v>
       </c>
-      <c r="L9" s="124">
+      <c r="L9" s="91">
         <v>10</v>
       </c>
-      <c r="M9" s="121">
+      <c r="M9" s="88">
         <v>45517</v>
       </c>
-      <c r="N9" s="127">
+      <c r="N9" s="94">
         <v>740</v>
       </c>
-      <c r="O9" s="127">
+      <c r="O9" s="94">
         <f>N9/L9</f>
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="119" t="s">
-        <v>247</v>
+      <c r="A10" s="86" t="s">
+        <v>141</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -5210,37 +3448,37 @@
       <c r="C10">
         <v>167</v>
       </c>
-      <c r="D10" s="131">
+      <c r="D10" s="98">
         <f t="shared" si="1"/>
         <v>29.940119760479043</v>
       </c>
-      <c r="E10" s="133">
+      <c r="E10" s="100">
         <f t="shared" si="0"/>
         <v>149.70059880239521</v>
       </c>
-      <c r="F10" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I10" s="131">
+      <c r="F10" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="98">
         <v>12.4</v>
       </c>
-      <c r="J10" s="131">
+      <c r="J10" s="98">
         <v>7.4</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="98">
         <v>10</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="119" t="s">
-        <v>248</v>
+      <c r="A11" s="86" t="s">
+        <v>142</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -5248,143 +3486,143 @@
       <c r="C11">
         <v>960</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="98">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="E11" s="133">
+      <c r="E11" s="100">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F11" s="129" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H11" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I11" s="131">
+      <c r="F11" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="98">
         <v>12.4</v>
       </c>
-      <c r="J11" s="131">
+      <c r="J11" s="98">
         <v>7.4</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="98">
         <v>10</v>
       </c>
-      <c r="M11" s="121"/>
+      <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="137">
+      <c r="A12" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="104">
         <v>5</v>
       </c>
-      <c r="C12" s="137">
+      <c r="C12" s="104">
         <v>178</v>
       </c>
-      <c r="D12" s="138">
+      <c r="D12" s="105">
         <f t="shared" si="1"/>
         <v>28.089887640449437</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="106">
         <f t="shared" si="0"/>
         <v>140.44943820224719</v>
       </c>
-      <c r="F12" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="H12" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="I12" s="138">
+      <c r="F12" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="105">
         <v>15</v>
       </c>
-      <c r="J12" s="138">
+      <c r="J12" s="105">
         <v>7.5</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="105">
         <v>9.4</v>
       </c>
-      <c r="L12" s="141">
+      <c r="L12" s="108">
         <v>4</v>
       </c>
-      <c r="M12" s="142">
+      <c r="M12" s="109">
         <v>45518</v>
       </c>
-      <c r="N12" s="143">
+      <c r="N12" s="110">
         <v>308</v>
       </c>
-      <c r="O12" s="143">
+      <c r="O12" s="110">
         <f>N12/L12</f>
         <v>77</v>
       </c>
-      <c r="P12" s="144">
+      <c r="P12" s="111">
         <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="136" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="137">
+      <c r="A13" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="104">
         <v>12</v>
       </c>
-      <c r="C13" s="137">
+      <c r="C13" s="104">
         <v>1028</v>
       </c>
-      <c r="D13" s="138">
+      <c r="D13" s="105">
         <f t="shared" si="1"/>
         <v>11.673151750972762</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="106">
         <f t="shared" si="0"/>
         <v>140.07782101167314</v>
       </c>
-      <c r="F13" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="H13" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="I13" s="138">
+      <c r="F13" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I13" s="105">
         <v>15</v>
       </c>
-      <c r="J13" s="138">
+      <c r="J13" s="105">
         <v>7.5</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="105">
         <v>9.4</v>
       </c>
-      <c r="L13" s="141">
+      <c r="L13" s="108">
         <v>2</v>
       </c>
-      <c r="M13" s="142">
+      <c r="M13" s="109">
         <v>45517</v>
       </c>
-      <c r="N13" s="143">
+      <c r="N13" s="110">
         <v>154</v>
       </c>
-      <c r="O13" s="143">
+      <c r="O13" s="110">
         <f>N13/L13</f>
         <v>77</v>
       </c>
-      <c r="P13" s="144">
+      <c r="P13" s="111">
         <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="118" t="s">
-        <v>251</v>
+      <c r="A14" s="85" t="s">
+        <v>145</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -5392,37 +3630,37 @@
       <c r="C14">
         <v>178</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="98">
         <f t="shared" si="1"/>
         <v>28.089887640449437</v>
       </c>
-      <c r="E14" s="133">
+      <c r="E14" s="100">
         <f t="shared" si="0"/>
         <v>140.44943820224719</v>
       </c>
-      <c r="F14" s="129" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I14" s="131">
+      <c r="F14" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="98">
         <v>15</v>
       </c>
-      <c r="J14" s="131">
+      <c r="J14" s="98">
         <v>7.5</v>
       </c>
-      <c r="K14" s="131">
+      <c r="K14" s="98">
         <v>9.4</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="118" t="s">
-        <v>252</v>
+      <c r="A15" s="85" t="s">
+        <v>146</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -5430,240 +3668,240 @@
       <c r="C15">
         <v>1028</v>
       </c>
-      <c r="D15" s="131">
+      <c r="D15" s="98">
         <f t="shared" si="1"/>
         <v>11.673151750972762</v>
       </c>
-      <c r="E15" s="133">
+      <c r="E15" s="100">
         <f t="shared" si="0"/>
         <v>140.07782101167314</v>
       </c>
-      <c r="F15" s="129" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="129" t="s">
-        <v>238</v>
-      </c>
-      <c r="H15" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="I15" s="131">
+      <c r="F15" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="96" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="98">
         <v>15</v>
       </c>
-      <c r="J15" s="131">
+      <c r="J15" s="98">
         <v>7.5</v>
       </c>
-      <c r="K15" s="131">
+      <c r="K15" s="98">
         <v>9.4</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="157" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="146">
+      <c r="A16" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="113">
         <v>5</v>
       </c>
-      <c r="C16" s="146">
+      <c r="C16" s="113">
         <v>237</v>
       </c>
-      <c r="D16" s="147">
+      <c r="D16" s="114">
         <f t="shared" si="1"/>
         <v>21.09704641350211</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="115">
         <f t="shared" si="0"/>
         <v>105.48523206751055</v>
       </c>
-      <c r="F16" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="149" t="s">
-        <v>238</v>
-      </c>
-      <c r="H16" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="I16" s="147">
+      <c r="F16" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="114">
         <v>10</v>
       </c>
-      <c r="J16" s="147">
+      <c r="J16" s="114">
         <v>6.5</v>
       </c>
-      <c r="K16" s="147">
+      <c r="K16" s="114">
         <v>5</v>
       </c>
-      <c r="L16" s="150">
+      <c r="L16" s="117">
         <v>4</v>
       </c>
-      <c r="M16" s="151">
+      <c r="M16" s="118">
         <v>45519</v>
       </c>
-      <c r="N16" s="152">
+      <c r="N16" s="119">
         <f>178*2</f>
         <v>356</v>
       </c>
-      <c r="O16" s="152">
+      <c r="O16" s="119">
         <f>N16/L16</f>
         <v>89</v>
       </c>
-      <c r="P16" s="153">
+      <c r="P16" s="120">
         <v>1270</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="145" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="146">
+      <c r="A17" s="112" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="113">
         <v>12</v>
       </c>
-      <c r="C17" s="146">
+      <c r="C17" s="113">
         <v>1315</v>
       </c>
-      <c r="D17" s="147">
+      <c r="D17" s="114">
         <f t="shared" si="1"/>
         <v>9.1254752851711025</v>
       </c>
-      <c r="E17" s="148">
+      <c r="E17" s="115">
         <f t="shared" si="0"/>
         <v>109.50570342205323</v>
       </c>
-      <c r="F17" s="149" t="s">
-        <v>240</v>
-      </c>
-      <c r="G17" s="149" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="149" t="s">
-        <v>242</v>
-      </c>
-      <c r="I17" s="147">
+      <c r="F17" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="114">
         <v>10</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="114">
         <v>6.5</v>
       </c>
-      <c r="K17" s="147">
+      <c r="K17" s="114">
         <v>5</v>
       </c>
-      <c r="L17" s="150">
+      <c r="L17" s="117">
         <v>4</v>
       </c>
-      <c r="M17" s="151">
+      <c r="M17" s="118">
         <v>45519</v>
       </c>
-      <c r="N17" s="152">
+      <c r="N17" s="119">
         <f>178*2</f>
         <v>356</v>
       </c>
-      <c r="O17" s="152">
+      <c r="O17" s="119">
         <f>N17/L17</f>
         <v>89</v>
       </c>
-      <c r="P17" s="153">
+      <c r="P17" s="120">
         <v>2640</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="137">
+      <c r="A18" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="104">
         <v>5</v>
       </c>
-      <c r="C18" s="137">
+      <c r="C18" s="104">
         <v>178</v>
       </c>
-      <c r="D18" s="138">
+      <c r="D18" s="105">
         <f t="shared" si="1"/>
         <v>28.089887640449437</v>
       </c>
-      <c r="E18" s="139">
+      <c r="E18" s="106">
         <f t="shared" si="0"/>
         <v>140.44943820224719</v>
       </c>
-      <c r="F18" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="G18" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="I18" s="138">
+      <c r="F18" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="105">
         <v>10</v>
       </c>
-      <c r="J18" s="138">
+      <c r="J18" s="105">
         <v>6.5</v>
       </c>
-      <c r="K18" s="138">
+      <c r="K18" s="105">
         <v>5.4</v>
       </c>
-      <c r="L18" s="141">
+      <c r="L18" s="108">
         <v>5</v>
       </c>
-      <c r="M18" s="142">
+      <c r="M18" s="109">
         <v>45517</v>
       </c>
-      <c r="N18" s="143">
+      <c r="N18" s="110">
         <v>320</v>
       </c>
-      <c r="O18" s="143">
+      <c r="O18" s="110">
         <f>N18/L18</f>
         <v>64</v>
       </c>
-      <c r="P18" s="144">
+      <c r="P18" s="111">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="137">
+      <c r="A19" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="104">
         <v>12</v>
       </c>
-      <c r="C19" s="137">
+      <c r="C19" s="104">
         <v>1028</v>
       </c>
-      <c r="D19" s="138">
+      <c r="D19" s="105">
         <f t="shared" si="1"/>
         <v>11.673151750972762</v>
       </c>
-      <c r="E19" s="139">
+      <c r="E19" s="106">
         <f t="shared" si="0"/>
         <v>140.07782101167314</v>
       </c>
-      <c r="F19" s="140" t="s">
-        <v>249</v>
-      </c>
-      <c r="G19" s="140" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="I19" s="138">
+      <c r="F19" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="105">
         <v>10</v>
       </c>
-      <c r="J19" s="138">
+      <c r="J19" s="105">
         <v>6.5</v>
       </c>
-      <c r="K19" s="138">
+      <c r="K19" s="105">
         <v>5.4</v>
       </c>
-      <c r="L19" s="141"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="144"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="111"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -5671,36 +3909,36 @@
       <c r="C20">
         <v>125</v>
       </c>
-      <c r="D20" s="131">
+      <c r="D20" s="98">
         <f t="shared" ref="D20" si="2">1000*B20/C20</f>
         <v>40</v>
       </c>
-      <c r="E20" s="133">
+      <c r="E20" s="100">
         <f t="shared" ref="E20" si="3">B20*D20</f>
         <v>200</v>
       </c>
-      <c r="F20" s="156" t="s">
-        <v>243</v>
-      </c>
-      <c r="G20" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="156" t="s">
-        <v>242</v>
-      </c>
-      <c r="I20" s="131">
+      <c r="F20" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="98">
         <v>15.5</v>
       </c>
-      <c r="J20" s="131">
+      <c r="J20" s="98">
         <v>10.5</v>
       </c>
-      <c r="K20" s="131">
+      <c r="K20" s="98">
         <v>11.8</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="155" t="s">
-        <v>258</v>
+      <c r="A21" s="122" t="s">
+        <v>152</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -5708,30 +3946,30 @@
       <c r="C21">
         <v>720</v>
       </c>
-      <c r="D21" s="131">
+      <c r="D21" s="98">
         <f t="shared" ref="D21" si="4">1000*B21/C21</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="E21" s="133">
+      <c r="E21" s="100">
         <f t="shared" ref="E21" si="5">B21*D21</f>
         <v>200</v>
       </c>
-      <c r="F21" s="156" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" s="156" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="156" t="s">
-        <v>242</v>
-      </c>
-      <c r="I21" s="131">
+      <c r="F21" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" s="98">
         <v>15.5</v>
       </c>
-      <c r="J21" s="131">
+      <c r="J21" s="98">
         <v>10.5</v>
       </c>
-      <c r="K21" s="131">
+      <c r="K21" s="98">
         <v>11.8</v>
       </c>
     </row>
